--- a/other/input/AQWMS/site_names_matching_table.xlsx
+++ b/other/input/AQWMS/site_names_matching_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t xml:space="preserve">sgs_sitenames</t>
   </si>
@@ -42,6 +42,9 @@
     <t xml:space="preserve">RM30-Funny River</t>
   </si>
   <si>
+    <t xml:space="preserve">RM31-Morgan's Landing </t>
+  </si>
+  <si>
     <t xml:space="preserve">RM36-Moose River</t>
   </si>
   <si>
@@ -60,6 +63,9 @@
     <t xml:space="preserve">RM0-No Name Creek</t>
   </si>
   <si>
+    <t xml:space="preserve">RM0-No Name Creek </t>
+  </si>
+  <si>
     <t xml:space="preserve">RM1.5-Kenai City Dock</t>
   </si>
   <si>
@@ -84,6 +90,63 @@
     <t xml:space="preserve">RM21-Soldotna Bridge</t>
   </si>
   <si>
+    <t xml:space="preserve">RM22-Soldotna Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM23-Swiftwater Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM30-Funny River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM36-Moose River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM40-Bing's Landing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM44-Mouth of Killey River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM50-Skilak Lake Outlet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM70-Jim's Landing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM74-Russian River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM82-Kenai Lake Bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM79.5 Juneau Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm10.1-Kenai River </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM12.5-Pillar </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM18-Poachers Cove </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM19-Slikok Creek </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM21-Soldotna Bridge </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM1.5-Kenai City Dock </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM6.5-Cunningham Park </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10-Beaver creek </t>
+  </si>
+  <si>
     <t xml:space="preserve">Monitoring Location Name</t>
   </si>
   <si>
@@ -138,7 +201,7 @@
     <t xml:space="preserve">Kenai River - River Mile 50 - Skilak Lake Outflow</t>
   </si>
   <si>
-    <t xml:space="preserve">Kenai River - Cummingham Park</t>
+    <t xml:space="preserve">Kenai River - Cunningham Park</t>
   </si>
   <si>
     <t xml:space="preserve">Kenai River - River Mile 70 - Jim's Landing</t>
@@ -597,6 +660,126 @@
         <v>22</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -613,117 +796,117 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/other/input/AQWMS/site_names_matching_table.xlsx
+++ b/other/input/AQWMS/site_names_matching_table.xlsx
@@ -1,227 +1,257 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_BOR_WaterSMART\kenai-river-wqx-report\other\input\AQWMS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
-  <si>
-    <t xml:space="preserve">sgs_sitenames</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM70- Jim's Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM74-Russian River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM79.5-Juneau Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM82-Kenai Lake Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM22-Soldotna Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM23-Swiftwater</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM31-Morgan's Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM30-Funny River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM31-Morgan's Landing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM36-Moose River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM40-Bing's Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM43-Upstream of Dow Island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM44-Mouth of Killey River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM50-Skilak Lake Outflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM0-No Name Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM0-No Name Creek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM1.5-Kenai City Dock</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM6.5-Cunning Hem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM10-Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM10.1-Kenai River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM12.5-Pillars</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM18-Poachers Cove</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM19-Slikok Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM21-Soldotna Bridge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM22-Soldotna Creek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM23-Swiftwater Park </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM30-Funny River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM36-Moose River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM40-Bing's Landing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM44-Mouth of Killey River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM50-Skilak Lake Outlet </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM70-Jim's Landing </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM74-Russian River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM82-Kenai Lake Bridge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM79.5 Juneau Creek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rm10.1-Kenai River </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM12.5-Pillar </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM18-Poachers Cove </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM19-Slikok Creek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM21-Soldotna Bridge </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM1.5-Kenai City Dock </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM6.5-Cunningham Park </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RM10-Beaver creek </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Monitoring Location Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 0 - "No Name" Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 10 - Beaver Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 10.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - The Pillars Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 19 - Slikok Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 22 - Soldotna Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 30 - Funny River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 36 - Moose River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 44 - Killey River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 50 - Skilak Lake Outflow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - Cunningham Park</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 70 - Jim's Landing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River - River Mile 74 - Russian River</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River Juneau Creek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kenai River Mile 82 - Kenai Lake Bridge</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>RM70_Jims_Landing</t>
+  </si>
+  <si>
+    <t>RM74_Russian_River</t>
+  </si>
+  <si>
+    <t>RM79.5_Juneau_Creek</t>
+  </si>
+  <si>
+    <t>RM82_Kenai_Lake_Bridge</t>
+  </si>
+  <si>
+    <t>RM22_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t>RM23_Swiftwater</t>
+  </si>
+  <si>
+    <t>RM31_Morgans_Landing</t>
+  </si>
+  <si>
+    <t>RM30_Funny_River</t>
+  </si>
+  <si>
+    <t>RM36_Moose_River</t>
+  </si>
+  <si>
+    <t>RM40_Bings_Landing</t>
+  </si>
+  <si>
+    <t>RM43_Upstream_of_Dow_Island</t>
+  </si>
+  <si>
+    <t>RM44_Mouth_of_Killey_River</t>
+  </si>
+  <si>
+    <t>RM50_Skilak_Lake_Outflow</t>
+  </si>
+  <si>
+    <t>RM0_No_Name_Creek</t>
+  </si>
+  <si>
+    <t>RM1.5_Kenai_City_Dock</t>
+  </si>
+  <si>
+    <t>RM6.5_Cunning_Hem</t>
+  </si>
+  <si>
+    <t>RM10_Beaver_Creek</t>
+  </si>
+  <si>
+    <t>RM10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t>RM12.5_Pillars</t>
+  </si>
+  <si>
+    <t>RM18_Poachers_Cove</t>
+  </si>
+  <si>
+    <t>RM19_Slikok_Creek</t>
+  </si>
+  <si>
+    <t>RM21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t>RM23_Swiftwater_Park</t>
+  </si>
+  <si>
+    <t>RM50_Skilak_Lake_Outlet</t>
+  </si>
+  <si>
+    <t>Rm10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t>RM12.5_Pillar</t>
+  </si>
+  <si>
+    <t>RM6.5_Cunningham_Park</t>
+  </si>
+  <si>
+    <t>RM10_Beaver_creek</t>
+  </si>
+  <si>
+    <t>Monitoring Location Name</t>
+  </si>
+  <si>
+    <t>Monitoring Location ID</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 0 - "No Name" Creek</t>
+  </si>
+  <si>
+    <t>KR RM 0 NNC</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 1.5</t>
+  </si>
+  <si>
+    <t>KR RM 1.5</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 10 - Beaver Creek</t>
+  </si>
+  <si>
+    <t>KR RM 10 BC</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 10.1</t>
+  </si>
+  <si>
+    <t>KR RM 10.1</t>
+  </si>
+  <si>
+    <t>Kenai River - The Pillars Park</t>
+  </si>
+  <si>
+    <t>KR RM 12.5</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 18</t>
+  </si>
+  <si>
+    <t>KR RM 18</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 19 - Slikok Creek</t>
+  </si>
+  <si>
+    <t>KR RM 19 SC</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 21</t>
+  </si>
+  <si>
+    <t>KR RM 21</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 22 - Soldotna Creek</t>
+  </si>
+  <si>
+    <t>KR RM 22 SOC</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 23</t>
+  </si>
+  <si>
+    <t>KR RM 23</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 30 - Funny River</t>
+  </si>
+  <si>
+    <t>KR RM 30 FR</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 31</t>
+  </si>
+  <si>
+    <t>KR RM 31</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 36 - Moose River</t>
+  </si>
+  <si>
+    <t>KR RM 36 MR</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 40</t>
+  </si>
+  <si>
+    <t>KR RM 40</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 43</t>
+  </si>
+  <si>
+    <t>KR RM 43</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 44 - Killey River</t>
+  </si>
+  <si>
+    <t>KR RM 44 KI</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 50 - Skilak Lake Outflow</t>
+  </si>
+  <si>
+    <t>KR RM 50</t>
+  </si>
+  <si>
+    <t>Kenai River - Cunningham Park</t>
+  </si>
+  <si>
+    <t>KR RM 6.5</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 70 - Jim's Landing</t>
+  </si>
+  <si>
+    <t>KR RM 70</t>
+  </si>
+  <si>
+    <t>Kenai River - River Mile 74 - Russian River</t>
+  </si>
+  <si>
+    <t>KR RM 74 RR</t>
+  </si>
+  <si>
+    <t>Kenai River Juneau Creek</t>
+  </si>
+  <si>
+    <t>KR RM 79.5 JC</t>
+  </si>
+  <si>
+    <t>Kenai River Mile 82 - Kenai Lake Bridge</t>
+  </si>
+  <si>
+    <t>KR RM 82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -257,6 +287,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -538,379 +577,364 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B23"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B10" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
+      <c r="B14" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>61</v>
+      </c>
+      <c r="B17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>63</v>
+      </c>
+      <c r="B18" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>65</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>69</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>71</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>66</v>
+        <v>73</v>
+      </c>
+      <c r="B23" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/other/input/AQWMS/site_names_matching_table.xlsx
+++ b/other/input/AQWMS/site_names_matching_table.xlsx
@@ -1,257 +1,332 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bmeyer\Documents\GitHub\Active GitHub Projects\KWF_BOR_WaterSMART\kenai-river-wqx-report\other\input\AQWMS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>RM70_Jims_Landing</t>
-  </si>
-  <si>
-    <t>RM74_Russian_River</t>
-  </si>
-  <si>
-    <t>RM79.5_Juneau_Creek</t>
-  </si>
-  <si>
-    <t>RM82_Kenai_Lake_Bridge</t>
-  </si>
-  <si>
-    <t>RM22_Soldotna_Creek</t>
-  </si>
-  <si>
-    <t>RM23_Swiftwater</t>
-  </si>
-  <si>
-    <t>RM31_Morgans_Landing</t>
-  </si>
-  <si>
-    <t>RM30_Funny_River</t>
-  </si>
-  <si>
-    <t>RM36_Moose_River</t>
-  </si>
-  <si>
-    <t>RM40_Bings_Landing</t>
-  </si>
-  <si>
-    <t>RM43_Upstream_of_Dow_Island</t>
-  </si>
-  <si>
-    <t>RM44_Mouth_of_Killey_River</t>
-  </si>
-  <si>
-    <t>RM50_Skilak_Lake_Outflow</t>
-  </si>
-  <si>
-    <t>RM0_No_Name_Creek</t>
-  </si>
-  <si>
-    <t>RM1.5_Kenai_City_Dock</t>
-  </si>
-  <si>
-    <t>RM6.5_Cunning_Hem</t>
-  </si>
-  <si>
-    <t>RM10_Beaver_Creek</t>
-  </si>
-  <si>
-    <t>RM10.1_Kenai_River</t>
-  </si>
-  <si>
-    <t>RM12.5_Pillars</t>
-  </si>
-  <si>
-    <t>RM18_Poachers_Cove</t>
-  </si>
-  <si>
-    <t>RM19_Slikok_Creek</t>
-  </si>
-  <si>
-    <t>RM21_Soldotna_Bridge</t>
-  </si>
-  <si>
-    <t>RM23_Swiftwater_Park</t>
-  </si>
-  <si>
-    <t>RM50_Skilak_Lake_Outlet</t>
-  </si>
-  <si>
-    <t>Rm10.1_Kenai_River</t>
-  </si>
-  <si>
-    <t>RM12.5_Pillar</t>
-  </si>
-  <si>
-    <t>RM6.5_Cunningham_Park</t>
-  </si>
-  <si>
-    <t>RM10_Beaver_creek</t>
-  </si>
-  <si>
-    <t>Monitoring Location Name</t>
-  </si>
-  <si>
-    <t>Monitoring Location ID</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 0 - "No Name" Creek</t>
-  </si>
-  <si>
-    <t>KR RM 0 NNC</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 1.5</t>
-  </si>
-  <si>
-    <t>KR RM 1.5</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 10 - Beaver Creek</t>
-  </si>
-  <si>
-    <t>KR RM 10 BC</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 10.1</t>
-  </si>
-  <si>
-    <t>KR RM 10.1</t>
-  </si>
-  <si>
-    <t>Kenai River - The Pillars Park</t>
-  </si>
-  <si>
-    <t>KR RM 12.5</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 18</t>
-  </si>
-  <si>
-    <t>KR RM 18</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 19 - Slikok Creek</t>
-  </si>
-  <si>
-    <t>KR RM 19 SC</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 21</t>
-  </si>
-  <si>
-    <t>KR RM 21</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 22 - Soldotna Creek</t>
-  </si>
-  <si>
-    <t>KR RM 22 SOC</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 23</t>
-  </si>
-  <si>
-    <t>KR RM 23</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 30 - Funny River</t>
-  </si>
-  <si>
-    <t>KR RM 30 FR</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 31</t>
-  </si>
-  <si>
-    <t>KR RM 31</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 36 - Moose River</t>
-  </si>
-  <si>
-    <t>KR RM 36 MR</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 40</t>
-  </si>
-  <si>
-    <t>KR RM 40</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 43</t>
-  </si>
-  <si>
-    <t>KR RM 43</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 44 - Killey River</t>
-  </si>
-  <si>
-    <t>KR RM 44 KI</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 50 - Skilak Lake Outflow</t>
-  </si>
-  <si>
-    <t>KR RM 50</t>
-  </si>
-  <si>
-    <t>Kenai River - Cunningham Park</t>
-  </si>
-  <si>
-    <t>KR RM 6.5</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 70 - Jim's Landing</t>
-  </si>
-  <si>
-    <t>KR RM 70</t>
-  </si>
-  <si>
-    <t>Kenai River - River Mile 74 - Russian River</t>
-  </si>
-  <si>
-    <t>KR RM 74 RR</t>
-  </si>
-  <si>
-    <t>Kenai River Juneau Creek</t>
-  </si>
-  <si>
-    <t>KR RM 79.5 JC</t>
-  </si>
-  <si>
-    <t>Kenai River Mile 82 - Kenai Lake Bridge</t>
-  </si>
-  <si>
-    <t>KR RM 82</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+  <si>
+    <t xml:space="preserve">V1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM70_Jims_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM74_Russian_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM79.5_Juneau_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM82_Kenai_Lake_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM22_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM23_Swiftwater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM31_Morgans_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM30_Funny_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM36_Moose_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM40_Bings_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM43_Upstream_of_Dow_Island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM44_Mouth_of_Killey_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM50_Skilak_Lake_Outflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM0_No_Name_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM1.5_Kenai_City_Dock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM6.5_Cunning_Hem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10_Beaver_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM12.5_Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM18_Poachers_Cove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM19_Slikok_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM23_Swiftwater_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM50_Skilak_Lake_Outlet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rm10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM12.5_Pillar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM6.5_Cunningham_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM10_Beaver_creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_0_No_Name_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_1.5_Kenai_City_Dock</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_6.5_Cunningham_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_10_Beaver_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_10.1_Kenai_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_12.5_Pillars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_18_Poachers_Cove</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_19_Slikok_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_21_Soldotna_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_22_Soldotna_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_23_Swiftwater_Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_30_Funny_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_31_Morgans_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_36_Moose_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_40_Bings_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_43_Upstream_of_Dow_Isalnd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_44_Mouth_of_Killey_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_50_Skilak_Lake_Outflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_70_Jims_Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_74_Russian_River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_82_Kenai_Lake_Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_79.5_Juneau_Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM_0_No_Name_Creek_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip_Blank_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip_Blank_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip_Blank_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trip_Blank_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring Location Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitoring Location ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 0 - "No Name" Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 0 NNC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 10 - Beaver Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 10 BC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 10.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - The Pillars Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 12.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 19 - Slikok Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 19 SC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 22 - Soldotna Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 22 SOC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 30 - Funny River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 30 FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 36 - Moose River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 36 MR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 44 - Killey River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 44 KI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 50 - Skilak Lake Outflow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - Cunningham Park</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 6.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 70 - Jim's Landing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River - River Mile 74 - Russian River</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 74 RR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River Juneau Creek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 79.5 JC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenai River Mile 82 - Kenai Lake Bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KR RM 82</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -287,15 +362,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -577,364 +643,493 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="true"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9">
       <c r="A9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12">
       <c r="A12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13">
       <c r="A13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15">
       <c r="A15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16">
       <c r="A16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17">
       <c r="A17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18">
       <c r="A18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19">
       <c r="A19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21">
       <c r="A21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22">
       <c r="A22" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23">
       <c r="A23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24">
       <c r="A24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26">
       <c r="A26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27">
       <c r="A27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28">
       <c r="A28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29">
       <c r="A29" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B23"/>
-    </sheetView>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="39" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" t="s">
-        <v>59</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="B17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>98</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/other/input/AQWMS/site_names_matching_table.xlsx
+++ b/other/input/AQWMS/site_names_matching_table.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
   <si>
     <t xml:space="preserve">V1</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t xml:space="preserve">Trip_Blank_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM0_No_Name_Cree_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM0_No_Name_Creek_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM31_Morgans_Landing_</t>
   </si>
   <si>
     <t xml:space="preserve">Monitoring Location Name</t>
@@ -930,6 +939,21 @@
         <v>55</v>
       </c>
     </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -946,186 +970,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B16" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
